--- a/data/accdb.xlsx
+++ b/data/accdb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Z_1ÁLTALÁNOS" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="393">
   <si>
     <t xml:space="preserve">VizsgálatID</t>
   </si>
@@ -109,37 +109,172 @@
     <t xml:space="preserve">Ápoló</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-05-20 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1899-12-30 17:42:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-20 17:36:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-12 00:00:00</t>
+    <t xml:space="preserve">2021-10-26 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 14:29:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-26 14:05:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023ap109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 14:29:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-26 14:12:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1meresjenei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-09 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kb 7 óra 15 perckor állítógépbe helyezték - NAGYOBB BETEGMOZGATÁS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-30 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 17:42:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-30 17:33:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2mereshevesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-27 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal felső végtag rögzítve zavartság miatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-03 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 18:38:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-03 18:32:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bogdan1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-02 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nem jeleztek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-08 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 13:28:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-08 13:19:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4balogh1104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-31 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-24 óra között a jobb alsó végtagról leesett az eszköz, az ápoló visszatette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-19 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 17:59:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-19 17:51:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1114fecze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 18:19:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-19 18:11:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1118koroknay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-11 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
   </si>
   <si>
     <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
   </si>
   <si>
-    <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
   </si>
   <si>
-    <t xml:space="preserve">1899-12-30 17:47:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-20 17:46:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-21 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[]</t>
+    <t xml:space="preserve">2021-12-03 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 11:43:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03 11:36:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1202mimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-20 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 17:47:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-20 17:38:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1213kaszas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 18:09:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-20 17:58:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1216vamosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-11 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A reggel folyamán komolyabb betegmozgatás - kiültették</t>
   </si>
   <si>
     <t xml:space="preserve">BalCsípő</t>
@@ -211,12 +346,24 @@
     <t xml:space="preserve">LízisMikor</t>
   </si>
   <si>
+    <t xml:space="preserve">5/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5</t>
+  </si>
+  <si>
     <t xml:space="preserve">0/5</t>
   </si>
   <si>
-    <t xml:space="preserve">4/5</t>
-  </si>
-  <si>
     <t xml:space="preserve">EszkAzBK</t>
   </si>
   <si>
@@ -265,6 +412,27 @@
     <t xml:space="preserve">Megjegyzés</t>
   </si>
   <si>
+    <t xml:space="preserve">1899-12-30 23:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 07:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eszközök levétele előtt néhány perccel a 2 karról levette az érzékelőlet, mert zavarta - a vizsgálat végére visszatettük</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ébredés 7:45 körül - Éjszaka WC 00:30 és 05:30 körül</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899-12-30 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WC 04:15, ébredés 07:00 körül</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagyon rosszul aludt</t>
+  </si>
+  <si>
     <t xml:space="preserve">DohányÁlt</t>
   </si>
   <si>
@@ -496,6 +664,21 @@
     <t xml:space="preserve">Pitvarfibrilláció</t>
   </si>
   <si>
+    <t xml:space="preserve">Emlő cc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embolia pulmonum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrocele l.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastritis chronica</t>
+  </si>
+  <si>
     <t xml:space="preserve">AlvászavarID</t>
   </si>
   <si>
@@ -532,18 +715,12 @@
     <t xml:space="preserve">Coverex-AS Komb</t>
   </si>
   <si>
-    <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covercard</t>
   </si>
   <si>
     <t xml:space="preserve">Covercard Plus</t>
   </si>
   <si>
-    <t xml:space="preserve">[&lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;, &lt;java object 'net.ucanaccess.complex.SingleValue'&gt;]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meforal</t>
   </si>
   <si>
@@ -598,6 +775,67 @@
     <t xml:space="preserve">Baclofen</t>
   </si>
   <si>
+    <t xml:space="preserve">Xultophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glurenorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betaserc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-Perineva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecalpin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabyprex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisoprolol 5 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warfarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atorvastatin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duopril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenaxum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quamatel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nootropil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lokren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitromint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lapiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olicard 40 mg
+valsotens 80 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliquis</t>
+  </si>
+  <si>
     <t xml:space="preserve">HatóanyagID</t>
   </si>
   <si>
@@ -737,9 +975,6 @@
   </si>
   <si>
     <t xml:space="preserve">SedhypNév</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontin</t>
   </si>
   <si>
     <t xml:space="preserve">Xanax</t>
@@ -1078,13 +1313,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1104,30 +1343,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="44.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="39.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="46.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -1198,7 +1436,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>21</v>
@@ -1213,81 +1451,81 @@
         <v>23</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>202104141</v>
+        <v>202110230</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>29.7</v>
+        <v>24.9</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>25</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>202110251</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="K3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>29</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>202104241</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>170</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>23.5</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>36.5</v>
@@ -1299,13 +1537,473 @@
         <v>4</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>31</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>202110280</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>202111021</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>202111041</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>202111141</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>202111181</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>202112020</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>202112131</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>202112171</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +2035,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +2097,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1412,13 +2110,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,10 +2135,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,10 +2146,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,10 +2157,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,10 +2168,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,10 +2179,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,10 +2190,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,10 +2212,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,10 +2223,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,10 +2234,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,10 +2245,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,10 +2256,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,10 +2267,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,10 +2278,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,10 +2289,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,10 +2300,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,10 +2311,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,10 +2322,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,10 +2333,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,10 +2344,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,10 +2355,230 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>31</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1692,13 +2610,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,10 +2635,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,10 +2646,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,10 +2657,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,10 +2668,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,10 +2679,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,10 +2690,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,10 +2701,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,10 +2712,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,10 +2723,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,10 +2734,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,10 +2745,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,10 +2756,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,10 +2767,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,10 +2778,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1895,12 +2813,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1932,32 +2850,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1989,27 +2907,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2041,10 +2959,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,7 +2994,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2108,13 +3026,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,10 +3051,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,10 +3062,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,10 +3073,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,10 +3084,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,10 +3095,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2212,27 +3130,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2264,47 +3182,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2323,7 +3241,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2331,11 +3249,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,86 +3257,318 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>202104141</v>
+        <v>202110230</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>202104241</v>
+        <v>202110251</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>202110280</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>202111021</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>202111041</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>202111141</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>202111181</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>202112020</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>202112131</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>202112171</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2454,10 +3600,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -2466,124 +3612,124 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,34 +3737,34 @@
         <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>294</v>
+        <v>372</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,22 +3772,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>110241003</v>
@@ -2661,52 +3807,52 @@
         <v>25</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="AL4" s="0" t="n">
         <v>4</v>
@@ -2715,13 +3861,13 @@
         <v>6</v>
       </c>
       <c r="AN4" s="0" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="AQ4" s="0" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
       <c r="AR4" s="0" t="n">
         <v>0</v>
@@ -2732,16 +3878,16 @@
         <v>4</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,16 +3895,16 @@
         <v>5</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,16 +3912,16 @@
         <v>6</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,16 +3929,16 @@
         <v>7</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,16 +3946,16 @@
         <v>8</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,16 +3963,16 @@
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,16 +3986,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AM11" s="0" t="n">
         <v>0</v>
@@ -2869,16 +4015,16 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AL12" s="0" t="n">
         <v>0</v>
@@ -2919,32 +4065,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>309</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>310</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>311</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -2976,52 +4122,52 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3053,13 +4199,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,10 +4213,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,10 +4224,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3089,10 +4235,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,10 +4246,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,10 +4257,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,10 +4268,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,10 +4279,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,10 +4290,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,10 +4301,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,10 +4323,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,10 +4334,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,10 +4345,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,10 +4356,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3221,10 +4367,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3256,13 +4402,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,10 +4416,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,10 +4427,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,10 +4438,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,10 +4449,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,10 +4460,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,10 +4471,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,10 +4482,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,10 +4493,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,10 +4504,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,10 +4515,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,10 +4526,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,10 +4537,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,10 +4548,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,10 +4559,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,10 +4570,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3446,7 +4592,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3462,159 +4608,159 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>202104141</v>
+        <v>202110230</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
@@ -3623,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>0</v>
@@ -3635,28 +4781,28 @@
         <v>0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="0" t="n">
         <v>0</v>
@@ -3665,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="AH2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="0" t="n">
         <v>0</v>
@@ -3677,10 +4823,10 @@
         <v>0</v>
       </c>
       <c r="AL2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="0" t="n">
         <v>0</v>
@@ -3689,15 +4835,919 @@
         <v>0</v>
       </c>
       <c r="AR2" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>202104241</v>
+        <v>202110251</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>202110280</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS4" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>202111021</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS5" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>202111041</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>202111141</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>202111181</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS8" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>202112020</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>202112131</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>202112171</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS11" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3716,17 +5766,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,93 +5785,93 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>202104141</v>
+        <v>202110230</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>0</v>
@@ -3828,36 +5879,424 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>202104241</v>
+        <v>202110251</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>202110280</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>202111021</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>202111041</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>202111141</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>202111181</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>202112020</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>202112131</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>202112171</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3877,7 +6316,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3893,68 +6332,243 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>202104141</v>
+        <v>202110230</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1023</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>504</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>202104241</v>
+        <v>202110251</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1025</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>202110280</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>20211028</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>20211028</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>202111021</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>202111041</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>202111141</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>202111181</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>202112020</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>202112131</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>202112171</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3973,7 +6587,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3989,47 +6603,180 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>202104141</v>
+        <v>202110230</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>202104241</v>
+        <v>202110251</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>202110280</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>202111021</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>202111041</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>202111141</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>202111181</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>202112020</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>202112131</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>202112171</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +6795,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4064,40 +6811,140 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>202104141</v>
+        <v>202110230</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>202104241</v>
+        <v>202110251</v>
       </c>
       <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>202110280</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>202111021</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>202111041</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>202111141</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>202111181</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>202112020</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>202112131</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>202112171</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4117,7 +6964,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4133,159 +6980,159 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>202104141</v>
+        <v>202110230</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
@@ -4294,10 +7141,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>0</v>
@@ -4306,28 +7153,28 @@
         <v>0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="0" t="n">
         <v>0</v>
@@ -4336,10 +7183,10 @@
         <v>0</v>
       </c>
       <c r="AH2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="0" t="n">
         <v>0</v>
@@ -4348,10 +7195,10 @@
         <v>0</v>
       </c>
       <c r="AL2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="0" t="n">
         <v>0</v>
@@ -4360,15 +7207,919 @@
         <v>0</v>
       </c>
       <c r="AR2" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>202104241</v>
+        <v>202110251</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>202110280</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS4" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>202111021</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS5" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>202111041</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>202111141</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>202111181</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS8" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>202112020</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>202112131</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>202112171</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS11" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4387,19 +8138,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,35 +8154,66 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>202104141</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>249</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>20</v>
+        <v>202110230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>202104241</v>
+        <v>202110251</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>202110280</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>202111021</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>202111041</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>202111141</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>202111181</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>202112020</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>202112131</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>202112171</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +8232,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4467,7 +8245,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
@@ -4478,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,7 +8264,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,7 +8272,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,7 +8280,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,7 +8288,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +8296,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,7 +8304,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +8312,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +8320,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,7 +8328,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,7 +8336,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,7 +8344,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,7 +8352,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4582,7 +8360,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,7 +8368,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,7 +8376,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,7 +8384,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,7 +8392,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +8400,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +8408,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +8416,47 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>149</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
